--- a/Networks/Parte2/Excel/Parte2-Network5.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network5.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2032506526527438</v>
+        <v>0.3948798872954241</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.378222679309846</v>
+        <v>-0.05516166515553721</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1158890494387236</v>
+        <v>-1.031384268746753</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.730312313089848</v>
+        <v>-0.5766246268025363</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1580042124214523</v>
+        <v>-1.558011315390599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1675010956928818</v>
+        <v>-0.1213129715663307</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.609290198463541</v>
+        <v>-0.3567884044806284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03024534617180947</v>
+        <v>-0.1912283726950495</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2570050012472462</v>
+        <v>-2.10415017445991</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2414565216824458</v>
+        <v>-0.5856542588741644</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.434970623108752</v>
+        <v>-0.3767432051075367</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2872700422044283</v>
+        <v>0.8894612098163481</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network5.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network5.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3948798872954241</v>
+        <v>-0.8983344824904379</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05516166515553721</v>
+        <v>-1.044205741479208</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.031384268746753</v>
+        <v>1.41889673321519</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5766246268025363</v>
+        <v>-0.9251340377201603</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.558011315390599</v>
+        <v>0.7289269858143762</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1213129715663307</v>
+        <v>-0.6697844404295697</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3567884044806284</v>
+        <v>-1.684346137949199</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1912283726950495</v>
+        <v>-0.2576497276055958</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.10415017445991</v>
+        <v>1.462435036328542</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5856542588741644</v>
+        <v>0.6404751458697506</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3767432051075367</v>
+        <v>-0.3869909651594174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8894612098163481</v>
+        <v>-0.7172796495907583</v>
       </c>
     </row>
   </sheetData>
